--- a/data/Finance Factory.xlsx
+++ b/data/Finance Factory.xlsx
@@ -16,15 +16,16 @@
     <sheet name="InstagramAge" sheetId="5" r:id="rId2"/>
     <sheet name="FacebookAge" sheetId="4" r:id="rId3"/>
     <sheet name="Audio" sheetId="12" r:id="rId4"/>
-    <sheet name="Audio_Geography" sheetId="13" r:id="rId5"/>
-    <sheet name="Geography" sheetId="2" r:id="rId6"/>
-    <sheet name="Instagram_Geography" sheetId="7" r:id="rId7"/>
-    <sheet name="view" sheetId="3" r:id="rId8"/>
-    <sheet name="Facebook_Geography" sheetId="6" r:id="rId9"/>
-    <sheet name="Fb_Insta" sheetId="8" r:id="rId10"/>
-    <sheet name="Tiktok_Age" sheetId="9" r:id="rId11"/>
-    <sheet name="Tiktok_Geography" sheetId="10" r:id="rId12"/>
-    <sheet name="Tiktok_Follower" sheetId="11" r:id="rId13"/>
+    <sheet name="Audio_play" sheetId="14" r:id="rId5"/>
+    <sheet name="Audio_Geography" sheetId="13" r:id="rId6"/>
+    <sheet name="Geography" sheetId="2" r:id="rId7"/>
+    <sheet name="Instagram_Geography" sheetId="7" r:id="rId8"/>
+    <sheet name="view" sheetId="3" r:id="rId9"/>
+    <sheet name="Facebook_Geography" sheetId="6" r:id="rId10"/>
+    <sheet name="Fb_Insta" sheetId="8" r:id="rId11"/>
+    <sheet name="Tiktok_Age" sheetId="9" r:id="rId12"/>
+    <sheet name="Tiktok_Geography" sheetId="10" r:id="rId13"/>
+    <sheet name="Tiktok_Follower" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1525">
   <si>
     <t>ageGroup</t>
   </si>
@@ -4597,6 +4598,27 @@
   </si>
   <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Apple Podcasts</t>
+  </si>
+  <si>
+    <t>Google Podcasts</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>CastBox</t>
+  </si>
+  <si>
+    <t>Web Browser</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -5059,6 +5081,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2">
+        <v>85.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12597,7 +12650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -12636,7 +12689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -12702,7 +12755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
@@ -13486,7 +13539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -13911,10 +13964,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E15:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B2">
+        <v>0.286855482933914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B3">
+        <v>0.265432098765432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B4">
+        <v>0.22585330428467601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B5">
+        <v>5.9186637618010102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B6">
+        <v>2.7596223674655002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B7">
+        <v>0.135076252723311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14345,7 +14473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -14547,7 +14675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -14586,7 +14714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
@@ -22528,35 +22656,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B2">
-        <v>85.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Finance Factory.xlsx
+++ b/data/Finance Factory.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1523">
   <si>
     <t>ageGroup</t>
   </si>
@@ -4396,18 +4396,12 @@
     <t>2022-07-01T00:00:00</t>
   </si>
   <si>
-    <t>Follower</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Views</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -4616,6 +4610,9 @@
   </si>
   <si>
     <t>allEpisodes</t>
+  </si>
+  <si>
+    <t>Distribution</t>
   </si>
 </sst>
 </file>
@@ -4969,6 +4966,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12925,12 +12926,12 @@
         <v>750</v>
       </c>
       <c r="B1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -12938,7 +12939,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B3">
         <v>147</v>
@@ -12946,7 +12947,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B4">
         <v>180</v>
@@ -12954,7 +12955,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -12962,7 +12963,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B6">
         <v>61</v>
@@ -12970,7 +12971,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B7">
         <v>272</v>
@@ -12978,7 +12979,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B8">
         <v>201</v>
@@ -12986,7 +12987,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B9">
         <v>102</v>
@@ -12994,7 +12995,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B10">
         <v>164</v>
@@ -13002,7 +13003,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B11">
         <v>107</v>
@@ -13010,7 +13011,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B12">
         <v>144</v>
@@ -13018,7 +13019,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B13">
         <v>48</v>
@@ -13026,7 +13027,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B14">
         <v>34</v>
@@ -13034,7 +13035,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B15">
         <v>88</v>
@@ -13042,7 +13043,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B16">
         <v>90</v>
@@ -13050,7 +13051,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B17">
         <v>47</v>
@@ -13058,7 +13059,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B18">
         <v>135</v>
@@ -13066,7 +13067,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B19">
         <v>186</v>
@@ -13074,7 +13075,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B20">
         <v>113</v>
@@ -13082,7 +13083,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B21">
         <v>114</v>
@@ -13090,7 +13091,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B22">
         <v>93</v>
@@ -13098,7 +13099,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B23">
         <v>104</v>
@@ -13106,7 +13107,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B24">
         <v>37</v>
@@ -13114,7 +13115,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B25">
         <v>83</v>
@@ -13122,7 +13123,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B26">
         <v>44</v>
@@ -13130,7 +13131,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -13138,7 +13139,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B28">
         <v>147</v>
@@ -13146,7 +13147,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B29">
         <v>180</v>
@@ -13154,7 +13155,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B30">
         <v>150</v>
@@ -13162,7 +13163,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B31">
         <v>61</v>
@@ -13170,7 +13171,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B32">
         <v>272</v>
@@ -13178,7 +13179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B33">
         <v>201</v>
@@ -13186,7 +13187,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B34">
         <v>102</v>
@@ -13194,7 +13195,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B35">
         <v>164</v>
@@ -13202,7 +13203,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B36">
         <v>107</v>
@@ -13210,7 +13211,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B37">
         <v>144</v>
@@ -13218,7 +13219,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B38">
         <v>48</v>
@@ -13226,7 +13227,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B39">
         <v>34</v>
@@ -13234,7 +13235,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B40">
         <v>88</v>
@@ -13242,7 +13243,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B41">
         <v>90</v>
@@ -13250,7 +13251,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -13258,7 +13259,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -13266,7 +13267,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B44">
         <v>186</v>
@@ -13274,7 +13275,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B45">
         <v>113</v>
@@ -13282,7 +13283,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B46">
         <v>114</v>
@@ -13290,7 +13291,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B47">
         <v>93</v>
@@ -13298,7 +13299,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B48">
         <v>104</v>
@@ -13306,7 +13307,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B49">
         <v>37</v>
@@ -13314,7 +13315,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B50">
         <v>83</v>
@@ -13322,7 +13323,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B51">
         <v>44</v>
@@ -13349,15 +13350,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B2">
         <v>0.286855482933914</v>
@@ -13365,7 +13366,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B3">
         <v>0.265432098765432</v>
@@ -13373,7 +13374,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B4">
         <v>0.22585330428467601</v>
@@ -13381,7 +13382,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B5">
         <v>5.9186637618010102E-2</v>
@@ -13389,7 +13390,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B6">
         <v>2.7596223674655002E-2</v>
@@ -13397,7 +13398,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B7">
         <v>0.135076252723311</v>
@@ -13425,10 +13426,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13445,7 +13446,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B3">
         <v>0.11</v>
@@ -13469,7 +13470,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -13481,7 +13482,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B6">
         <v>0.04</v>
@@ -13493,7 +13494,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -13505,7 +13506,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B8">
         <v>0.03</v>
@@ -13517,7 +13518,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B9">
         <v>0.02</v>
@@ -13529,7 +13530,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B10">
         <v>0.02</v>
@@ -13541,7 +13542,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -13553,7 +13554,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B12">
         <v>8.4434654919236397E-3</v>
@@ -13565,7 +13566,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B13">
         <v>6.2408223201174699E-3</v>
@@ -13577,7 +13578,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B14">
         <v>5.5066079295154101E-3</v>
@@ -13589,7 +13590,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B15">
         <v>4.40528634361233E-3</v>
@@ -13601,7 +13602,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B16">
         <v>3.6710719530102698E-3</v>
@@ -13613,7 +13614,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B17">
         <v>2.93685756240822E-3</v>
@@ -13625,7 +13626,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B18">
         <v>2.2026431718061598E-3</v>
@@ -13637,7 +13638,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B19">
         <v>2.2026431718061598E-3</v>
@@ -13649,7 +13650,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B20">
         <v>1.1013215859030799E-3</v>
@@ -13661,7 +13662,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B21">
         <v>1.1013215859030799E-3</v>
@@ -13673,7 +13674,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B22">
         <v>7.34214390602055E-4</v>
@@ -13685,7 +13686,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B23">
         <v>7.34214390602055E-4</v>
@@ -13697,7 +13698,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B24">
         <v>3.6710719530102701E-4</v>
@@ -13709,7 +13710,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B25">
         <v>3.6710719530102701E-4</v>
@@ -13721,7 +13722,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B26">
         <v>3.6710719530102701E-4</v>
@@ -13733,7 +13734,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B27">
         <v>3.6710719530102701E-4</v>
@@ -13745,7 +13746,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B28">
         <v>3.6710719530102701E-4</v>
@@ -13757,7 +13758,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B29">
         <v>3.6710719530102701E-4</v>
@@ -13769,7 +13770,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B30">
         <v>3.6710719530102701E-4</v>
@@ -13781,7 +13782,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B31">
         <v>3.6710719530102701E-4</v>
@@ -13793,7 +13794,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B32">
         <v>3.6710719530102701E-4</v>
@@ -13805,7 +13806,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B33">
         <v>3.6710719530102701E-4</v>
@@ -13817,7 +13818,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B34">
         <v>3.6710719530102701E-4</v>
@@ -13829,7 +13830,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B35">
         <v>3.6710719530102701E-4</v>
@@ -13985,7 +13986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -14341,22 +14342,25 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1453</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B2">
         <v>83</v>
@@ -14364,7 +14368,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -14393,12 +14397,12 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B2">
         <v>1.5</v>
@@ -14414,7 +14418,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -14422,7 +14426,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B5">
         <v>0.75</v>
@@ -14459,7 +14463,7 @@
         <v>750</v>
       </c>
       <c r="B1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15120,13 +15124,14 @@
   <dimension ref="A1:C700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15134,10 +15139,10 @@
         <v>750</v>
       </c>
       <c r="B1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C1" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
